--- a/NA232/Data/NA232.xlsx
+++ b/NA232/Data/NA232.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aamil_khaan/Desktop/Soch/NA232/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F72B312A-17D4-0B40-B0FB-770292D8A54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78D81A0-80EC-B447-8DD5-37750D19C399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="7000" windowWidth="28100" windowHeight="17440" xr2:uid="{0EC677A5-9F2C-7441-BE79-5FD86205242B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NA232" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="20">
   <si>
     <t>PSNO_NA_ECP</t>
   </si>
@@ -62,9 +62,6 @@
     <t>TURNOUT_NA_ECP</t>
   </si>
   <si>
-    <t>TURNOUT_NA_PERCENTAGE</t>
-  </si>
-  <si>
     <t>TURNOUT_PA_ECP</t>
   </si>
   <si>
@@ -86,16 +83,19 @@
     <t>ECP_PTI_DIFFERENCE_OPP_VOTES</t>
   </si>
   <si>
-    <t>Adeel Ahmed</t>
-  </si>
-  <si>
     <t>Missing</t>
   </si>
   <si>
-    <t>Aasia Ishaque Siddiqui</t>
+    <t>Blur</t>
   </si>
   <si>
-    <t>Blur</t>
+    <t>Adeel Ahmed (PTI)</t>
+  </si>
+  <si>
+    <t>Aasia Ishaque Siddiqui (MQM)</t>
+  </si>
+  <si>
+    <t>TURNOUT_NA_PERCENTAGE_ECP</t>
   </si>
 </sst>
 </file>
@@ -509,10 +509,28 @@
   <dimension ref="A1:P271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -540,41 +558,45 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>96</v>
+      </c>
       <c r="D2" s="5">
         <v>2596</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4">
         <v>363</v>
@@ -588,12 +610,14 @@
       <c r="I2" s="4">
         <v>30.508474580000001</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4">
+        <v>791</v>
+      </c>
       <c r="K2" s="4">
-        <v>0</v>
+        <v>30.469953780000001</v>
       </c>
       <c r="L2" s="4">
-        <v>792</v>
+        <v>1</v>
       </c>
       <c r="M2" s="4">
         <v>96</v>
@@ -612,13 +636,17 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>96</v>
+      </c>
       <c r="D3" s="5">
         <v>1570</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4">
         <v>207</v>
@@ -632,21 +660,23 @@
       <c r="I3" s="4">
         <v>37.324840760000001</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4">
+        <v>589</v>
+      </c>
       <c r="K3" s="4">
-        <v>0</v>
+        <v>37.515923569999998</v>
       </c>
       <c r="L3" s="4">
-        <v>586</v>
+        <v>3</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P3" s="4">
         <v>-65</v>
@@ -656,13 +686,17 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>96</v>
+      </c>
       <c r="D4" s="5">
         <v>2196</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>346</v>
@@ -676,21 +710,23 @@
       <c r="I4" s="4">
         <v>42.531876140000001</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4">
+        <v>934</v>
+      </c>
       <c r="K4" s="4">
-        <v>0</v>
+        <v>42.531876140000001</v>
       </c>
       <c r="L4" s="4">
-        <v>934</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P4" s="4" t="e">
         <v>#VALUE!</v>
@@ -700,13 +736,17 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>96</v>
+      </c>
       <c r="D5" s="5">
         <v>1966</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4">
         <v>300</v>
@@ -720,21 +760,23 @@
       <c r="I5" s="4">
         <v>32.044760940000003</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4">
+        <v>630</v>
+      </c>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>32.044760940000003</v>
       </c>
       <c r="L5" s="4">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P5" s="4" t="e">
         <v>#VALUE!</v>
@@ -744,13 +786,17 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>96</v>
+      </c>
       <c r="D6" s="5">
         <v>1702</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4">
         <v>242</v>
@@ -764,21 +810,23 @@
       <c r="I6" s="4">
         <v>38.954171559999999</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4">
+        <v>659</v>
+      </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>38.719153939999998</v>
       </c>
       <c r="L6" s="4">
-        <v>663</v>
+        <v>4</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P6" s="4" t="e">
         <v>#VALUE!</v>
@@ -788,13 +836,17 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>96</v>
+      </c>
       <c r="D7" s="5">
         <v>1464</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4">
         <v>312</v>
@@ -808,21 +860,23 @@
       <c r="I7" s="4">
         <v>42.759562840000001</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4">
+        <v>626</v>
+      </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>42.759562840000001</v>
       </c>
       <c r="L7" s="4">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P7" s="4" t="e">
         <v>#VALUE!</v>
@@ -832,13 +886,17 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>96</v>
+      </c>
       <c r="D8" s="5">
         <v>2956</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4">
         <v>408</v>
@@ -852,21 +910,23 @@
       <c r="I8" s="4">
         <v>37.686062249999999</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4">
+        <v>1114</v>
+      </c>
       <c r="K8" s="4">
-        <v>0</v>
+        <v>37.686062249999999</v>
       </c>
       <c r="L8" s="4">
-        <v>1114</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P8" s="4" t="e">
         <v>#VALUE!</v>
@@ -876,13 +936,17 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>96</v>
+      </c>
       <c r="D9" s="4">
         <v>2457</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4">
         <v>284</v>
@@ -896,21 +960,23 @@
       <c r="I9" s="4">
         <v>25.396825400000001</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4">
+        <v>616</v>
+      </c>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>25.071225070000001</v>
       </c>
       <c r="L9" s="4">
-        <v>624</v>
+        <v>8</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P9" s="4" t="e">
         <v>#VALUE!</v>
@@ -920,13 +986,17 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>96</v>
+      </c>
       <c r="D10" s="4">
         <v>2047</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -940,21 +1010,23 @@
       <c r="I10" s="4">
         <v>100</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4">
+        <v>598</v>
+      </c>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>29.213483149999998</v>
       </c>
       <c r="L10" s="4">
-        <v>2047</v>
+        <v>1449</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P10" s="4" t="e">
         <v>#VALUE!</v>
@@ -964,13 +1036,17 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>96</v>
+      </c>
       <c r="D11" s="5">
         <v>2228</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -984,12 +1060,14 @@
       <c r="I11" s="4">
         <v>100</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <v>739</v>
+      </c>
       <c r="K11" s="4">
-        <v>0</v>
+        <v>33.16876122</v>
       </c>
       <c r="L11" s="4">
-        <v>2228</v>
+        <v>1489</v>
       </c>
       <c r="M11" s="4">
         <v>272</v>
@@ -1008,13 +1086,17 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="5">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>96</v>
+      </c>
       <c r="D12" s="5">
         <v>3125</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" s="4">
         <v>313</v>
@@ -1028,12 +1110,14 @@
       <c r="I12" s="4">
         <v>34.783999999999999</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <v>1083</v>
+      </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>34.655999999999999</v>
       </c>
       <c r="L12" s="4">
-        <v>1087</v>
+        <v>4</v>
       </c>
       <c r="M12" s="4">
         <v>313</v>
@@ -1052,13 +1136,17 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="5">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>96</v>
+      </c>
       <c r="D13" s="5">
         <v>1297</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4">
         <v>109</v>
@@ -1072,21 +1160,23 @@
       <c r="I13" s="4">
         <v>36.083269080000001</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4">
+        <v>467</v>
+      </c>
       <c r="K13" s="4">
-        <v>0</v>
+        <v>36.006168080000002</v>
       </c>
       <c r="L13" s="4">
-        <v>468</v>
+        <v>1</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P13" s="4" t="e">
         <v>#VALUE!</v>
@@ -1096,13 +1186,17 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="5">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5">
+        <v>96</v>
+      </c>
       <c r="D14" s="5">
         <v>1683</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="4">
         <v>125</v>
@@ -1116,12 +1210,14 @@
       <c r="I14" s="4">
         <v>36.125965540000003</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4">
+        <v>608</v>
+      </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>36.125965540000003</v>
       </c>
       <c r="L14" s="4">
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="M14" s="4">
         <v>125</v>
@@ -1140,13 +1236,17 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="5">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>96</v>
+      </c>
       <c r="D15" s="5">
         <v>2224</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15" s="4">
         <v>256</v>
@@ -1160,12 +1260,14 @@
       <c r="I15" s="4">
         <v>29.181654680000001</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4">
+        <v>668</v>
+      </c>
       <c r="K15" s="4">
-        <v>0</v>
+        <v>30.03597122</v>
       </c>
       <c r="L15" s="4">
-        <v>649</v>
+        <v>19</v>
       </c>
       <c r="M15" s="4">
         <v>256</v>
@@ -1184,13 +1286,17 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="5">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <v>96</v>
+      </c>
       <c r="D16" s="5">
         <v>1842</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F16" s="4">
         <v>412</v>
@@ -1204,37 +1310,43 @@
       <c r="I16" s="4">
         <v>41.042345279999999</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4">
+        <v>756</v>
+      </c>
       <c r="K16" s="4">
-        <v>0</v>
+        <v>41.042345279999999</v>
       </c>
       <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>412</v>
+      </c>
+      <c r="N16" s="4">
+        <v>10</v>
+      </c>
+      <c r="O16" s="4">
         <v>756</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="4" t="e">
-        <v>#VALUE!</v>
+      <c r="P16" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="5">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5">
+        <v>96</v>
+      </c>
       <c r="D17" s="5">
         <v>3105</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F17" s="4">
         <v>324</v>
@@ -1248,37 +1360,43 @@
       <c r="I17" s="4">
         <v>37.648953300000002</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="4">
+        <v>1169</v>
+      </c>
       <c r="K17" s="4">
-        <v>0</v>
+        <v>37.648953300000002</v>
       </c>
       <c r="L17" s="4">
-        <v>1169</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="4" t="e">
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>324</v>
+      </c>
+      <c r="N17" s="4">
+        <v>14</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1160</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="5">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
+        <v>96</v>
+      </c>
       <c r="D18" s="5">
         <v>2237</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F18" s="4">
         <v>405</v>
@@ -1292,37 +1410,43 @@
       <c r="I18" s="4">
         <v>43.04872597</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4">
+        <v>962</v>
+      </c>
       <c r="K18" s="4">
-        <v>0</v>
+        <v>43.004023250000003</v>
       </c>
       <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>405</v>
+      </c>
+      <c r="N18" s="4">
+        <v>51</v>
+      </c>
+      <c r="O18" s="4">
         <v>963</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="4" t="e">
-        <v>#VALUE!</v>
+      <c r="P18" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="5">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <v>96</v>
+      </c>
       <c r="D19" s="5">
         <v>1955</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" s="4">
         <v>303</v>
@@ -1336,37 +1460,43 @@
       <c r="I19" s="4">
         <v>39.897698210000001</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="4">
+        <v>780</v>
+      </c>
       <c r="K19" s="4">
-        <v>0</v>
+        <v>39.897698210000001</v>
       </c>
       <c r="L19" s="4">
-        <v>780</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="4" t="e">
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>303</v>
+      </c>
+      <c r="N19" s="4">
+        <v>7</v>
+      </c>
+      <c r="O19" s="4">
+        <v>764</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="5">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5">
+        <v>96</v>
+      </c>
       <c r="D20" s="5">
         <v>2622</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F20" s="4">
         <v>444</v>
@@ -1380,21 +1510,23 @@
       <c r="I20" s="4">
         <v>33.104500379999998</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="4">
+        <v>868</v>
+      </c>
       <c r="K20" s="4">
-        <v>0</v>
+        <v>33.104500379999998</v>
       </c>
       <c r="L20" s="4">
-        <v>868</v>
+        <v>0</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P20" s="4" t="e">
         <v>#VALUE!</v>
@@ -1404,13 +1536,17 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="5">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5">
+        <v>96</v>
+      </c>
       <c r="D21" s="5">
         <v>1872</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="4">
         <v>369</v>
@@ -1424,21 +1560,23 @@
       <c r="I21" s="4">
         <v>40.972222219999999</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="4">
+        <v>767</v>
+      </c>
       <c r="K21" s="4">
-        <v>0</v>
+        <v>40.972222219999999</v>
       </c>
       <c r="L21" s="4">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P21" s="4" t="e">
         <v>#VALUE!</v>
@@ -1448,13 +1586,17 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="5">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5">
+        <v>96</v>
+      </c>
       <c r="D22" s="5">
         <v>2280</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F22" s="4">
         <v>106</v>
@@ -1468,37 +1610,43 @@
       <c r="I22" s="4">
         <v>31.578947370000002</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4">
+        <v>773</v>
+      </c>
       <c r="K22" s="4">
-        <v>0</v>
+        <v>33.903508770000002</v>
       </c>
       <c r="L22" s="4">
-        <v>720</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" s="4" t="e">
-        <v>#VALUE!</v>
+        <v>53</v>
+      </c>
+      <c r="M22" s="4">
+        <v>106</v>
+      </c>
+      <c r="N22" s="4">
+        <v>81</v>
+      </c>
+      <c r="O22" s="4">
+        <v>718</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="5">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5">
+        <v>96</v>
+      </c>
       <c r="D23" s="5">
         <v>2283</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="4">
         <v>453</v>
@@ -1512,37 +1660,43 @@
       <c r="I23" s="4">
         <v>39.378011389999998</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4">
+        <v>917</v>
+      </c>
       <c r="K23" s="4">
-        <v>0</v>
+        <v>40.166447660000003</v>
       </c>
       <c r="L23" s="4">
-        <v>899</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="4" t="e">
-        <v>#VALUE!</v>
+        <v>18</v>
+      </c>
+      <c r="M23" s="4">
+        <v>453</v>
+      </c>
+      <c r="N23" s="4">
+        <v>10</v>
+      </c>
+      <c r="O23" s="4">
+        <v>849</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="5">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5">
+        <v>96</v>
+      </c>
       <c r="D24" s="5">
         <v>1777</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F24" s="4">
         <v>328</v>
@@ -1556,37 +1710,43 @@
       <c r="I24" s="4">
         <v>44.006752949999999</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="4">
+        <v>782</v>
+      </c>
       <c r="K24" s="4">
-        <v>0</v>
+        <v>44.006752949999999</v>
       </c>
       <c r="L24" s="4">
-        <v>782</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="4" t="e">
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>328</v>
+      </c>
+      <c r="N24" s="4">
+        <v>6</v>
+      </c>
+      <c r="O24" s="4">
+        <v>764</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="5">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5">
+        <v>96</v>
+      </c>
       <c r="D25" s="5">
         <v>1762</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F25" s="4">
         <v>278</v>
@@ -1600,37 +1760,43 @@
       <c r="I25" s="4">
         <v>45.005675369999999</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="4">
+        <v>792</v>
+      </c>
       <c r="K25" s="4">
-        <v>0</v>
+        <v>44.948921679999998</v>
       </c>
       <c r="L25" s="4">
-        <v>793</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="4" t="e">
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="M25" s="4">
+        <v>278</v>
+      </c>
+      <c r="N25" s="4">
+        <v>6</v>
+      </c>
+      <c r="O25" s="4">
+        <v>774</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="5">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5">
+        <v>96</v>
+      </c>
       <c r="D26" s="5">
         <v>2383</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F26" s="4">
         <v>214</v>
@@ -1644,21 +1810,23 @@
       <c r="I26" s="4">
         <v>36.634494330000003</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="4">
+        <v>833</v>
+      </c>
       <c r="K26" s="4">
-        <v>0</v>
+        <v>34.955937890000001</v>
       </c>
       <c r="L26" s="4">
-        <v>873</v>
+        <v>40</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P26" s="4" t="e">
         <v>#VALUE!</v>
@@ -1668,13 +1836,17 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="5">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5">
+        <v>96</v>
+      </c>
       <c r="D27" s="5">
         <v>2014</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -1688,21 +1860,23 @@
       <c r="I27" s="4">
         <v>100</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="4">
+        <v>445</v>
+      </c>
       <c r="K27" s="4">
-        <v>0</v>
+        <v>22.095332670000001</v>
       </c>
       <c r="L27" s="4">
-        <v>2014</v>
+        <v>1569</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P27" s="4" t="e">
         <v>#VALUE!</v>
@@ -1712,13 +1886,17 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="5">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5">
+        <v>96</v>
+      </c>
       <c r="D28" s="5">
         <v>1588</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" s="4">
         <v>205</v>
@@ -1732,21 +1910,23 @@
       <c r="I28" s="4">
         <v>53.2115869</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="4">
+        <v>845</v>
+      </c>
       <c r="K28" s="4">
-        <v>0</v>
+        <v>53.2115869</v>
       </c>
       <c r="L28" s="4">
-        <v>845</v>
+        <v>0</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P28" s="4" t="e">
         <v>#VALUE!</v>
@@ -1756,13 +1936,17 @@
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="5">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5">
+        <v>96</v>
+      </c>
       <c r="D29" s="5">
         <v>2563</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F29" s="4">
         <v>254</v>
@@ -1776,21 +1960,23 @@
       <c r="I29" s="4">
         <v>29.145532580000001</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="4">
+        <v>743</v>
+      </c>
       <c r="K29" s="4">
-        <v>0</v>
+        <v>28.989465469999999</v>
       </c>
       <c r="L29" s="4">
-        <v>747</v>
+        <v>4</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P29" s="4" t="e">
         <v>#VALUE!</v>
@@ -1800,13 +1986,17 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="5">
+        <v>29</v>
+      </c>
+      <c r="C30" s="5">
+        <v>96</v>
+      </c>
       <c r="D30" s="5">
         <v>2300</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F30" s="4">
         <v>168</v>
@@ -1820,12 +2010,14 @@
       <c r="I30" s="4">
         <v>27</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="4">
+        <v>619</v>
+      </c>
       <c r="K30" s="4">
-        <v>0</v>
+        <v>26.913043479999999</v>
       </c>
       <c r="L30" s="4">
-        <v>621</v>
+        <v>2</v>
       </c>
       <c r="M30" s="4">
         <v>195</v>
@@ -1844,13 +2036,17 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="5">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5">
+        <v>96</v>
+      </c>
       <c r="D31" s="5">
         <v>1954</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F31" s="4">
         <v>185</v>
@@ -1864,21 +2060,23 @@
       <c r="I31" s="4">
         <v>29.631525079999999</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="4">
+        <v>579</v>
+      </c>
       <c r="K31" s="4">
-        <v>0</v>
+        <v>29.631525079999999</v>
       </c>
       <c r="L31" s="4">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P31" s="4" t="e">
         <v>#VALUE!</v>
@@ -1888,13 +2086,17 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="5">
+        <v>31</v>
+      </c>
+      <c r="C32" s="5">
+        <v>96</v>
+      </c>
       <c r="D32" s="5">
         <v>2702</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F32" s="4">
         <v>306</v>
@@ -1908,21 +2110,23 @@
       <c r="I32" s="4">
         <v>28.4603997</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="4">
+        <v>769</v>
+      </c>
       <c r="K32" s="4">
-        <v>0</v>
+        <v>28.4603997</v>
       </c>
       <c r="L32" s="4">
-        <v>769</v>
+        <v>0</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P32" s="4" t="e">
         <v>#VALUE!</v>
@@ -1932,13 +2136,17 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="5">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5">
+        <v>96</v>
+      </c>
       <c r="D33" s="5">
         <v>2045</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -1952,21 +2160,23 @@
       <c r="I33" s="4">
         <v>100</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33" s="4">
+        <v>664</v>
+      </c>
       <c r="K33" s="4">
-        <v>0</v>
+        <v>32.469437650000003</v>
       </c>
       <c r="L33" s="4">
-        <v>2045</v>
+        <v>1381</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P33" s="4" t="e">
         <v>#VALUE!</v>
@@ -1976,13 +2186,17 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="5">
+        <v>33</v>
+      </c>
+      <c r="C34" s="5">
+        <v>96</v>
+      </c>
       <c r="D34" s="5">
         <v>3164</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F34" s="4">
         <v>310</v>
@@ -1996,21 +2210,23 @@
       <c r="I34" s="4">
         <v>29.01390645</v>
       </c>
-      <c r="J34" s="4"/>
+      <c r="J34" s="4">
+        <v>918</v>
+      </c>
       <c r="K34" s="4">
-        <v>0</v>
+        <v>29.01390645</v>
       </c>
       <c r="L34" s="4">
-        <v>918</v>
+        <v>0</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P34" s="4" t="e">
         <v>#VALUE!</v>
@@ -2020,13 +2236,17 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="5">
+        <v>34</v>
+      </c>
+      <c r="C35" s="5">
+        <v>96</v>
+      </c>
       <c r="D35" s="5">
         <v>1682</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F35" s="4">
         <v>149</v>
@@ -2040,21 +2260,23 @@
       <c r="I35" s="4">
         <v>30.915576690000002</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="J35" s="4">
+        <v>521</v>
+      </c>
       <c r="K35" s="4">
-        <v>0</v>
+        <v>30.975029729999999</v>
       </c>
       <c r="L35" s="4">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P35" s="4" t="e">
         <v>#VALUE!</v>
@@ -2064,13 +2286,17 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="5">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5">
+        <v>96</v>
+      </c>
       <c r="D36" s="5">
         <v>2239</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="4">
         <v>142</v>
@@ -2084,21 +2310,23 @@
       <c r="I36" s="4">
         <v>42.474318889999999</v>
       </c>
-      <c r="J36" s="4"/>
+      <c r="J36" s="4">
+        <v>997</v>
+      </c>
       <c r="K36" s="4">
-        <v>0</v>
+        <v>44.528807499999999</v>
       </c>
       <c r="L36" s="4">
-        <v>951</v>
+        <v>46</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P36" s="4" t="e">
         <v>#VALUE!</v>
@@ -2108,13 +2336,17 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="5">
+        <v>36</v>
+      </c>
+      <c r="C37" s="5">
+        <v>96</v>
+      </c>
       <c r="D37" s="5">
         <v>1956</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F37" s="4">
         <v>152</v>
@@ -2128,21 +2360,23 @@
       <c r="I37" s="4">
         <v>24.488752559999998</v>
       </c>
-      <c r="J37" s="4"/>
+      <c r="J37" s="4">
+        <v>479</v>
+      </c>
       <c r="K37" s="4">
-        <v>0</v>
+        <v>24.488752559999998</v>
       </c>
       <c r="L37" s="4">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P37" s="4" t="e">
         <v>#VALUE!</v>
@@ -2152,13 +2386,17 @@
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="5">
+        <v>37</v>
+      </c>
+      <c r="C38" s="5">
+        <v>96</v>
+      </c>
       <c r="D38" s="5">
         <v>2065</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F38" s="4">
         <v>201</v>
@@ -2172,21 +2410,23 @@
       <c r="I38" s="4">
         <v>34.866828089999998</v>
       </c>
-      <c r="J38" s="4"/>
+      <c r="J38" s="4">
+        <v>720</v>
+      </c>
       <c r="K38" s="4">
-        <v>0</v>
+        <v>34.866828089999998</v>
       </c>
       <c r="L38" s="4">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P38" s="4" t="e">
         <v>#VALUE!</v>
@@ -2196,13 +2436,17 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="5">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5">
+        <v>96</v>
+      </c>
       <c r="D39" s="5">
         <v>1760</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F39" s="4">
         <v>130</v>
@@ -2216,21 +2460,23 @@
       <c r="I39" s="4">
         <v>20.170454549999999</v>
       </c>
-      <c r="J39" s="4"/>
+      <c r="J39" s="4">
+        <v>364</v>
+      </c>
       <c r="K39" s="4">
-        <v>0</v>
+        <v>20.68181818</v>
       </c>
       <c r="L39" s="4">
-        <v>355</v>
+        <v>9</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P39" s="4" t="e">
         <v>#VALUE!</v>
@@ -2240,13 +2486,17 @@
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="5">
+        <v>39</v>
+      </c>
+      <c r="C40" s="5">
+        <v>96</v>
+      </c>
       <c r="D40" s="5">
         <v>1436</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F40" s="4">
         <v>189</v>
@@ -2260,12 +2510,14 @@
       <c r="I40" s="4">
         <v>38.022284120000002</v>
       </c>
-      <c r="J40" s="4"/>
+      <c r="J40" s="4">
+        <v>546</v>
+      </c>
       <c r="K40" s="4">
-        <v>0</v>
+        <v>38.022284120000002</v>
       </c>
       <c r="L40" s="4">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="M40" s="4">
         <v>187</v>
@@ -2284,13 +2536,17 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="5">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5">
+        <v>96</v>
+      </c>
       <c r="D41" s="5">
         <v>2577</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F41" s="4">
         <v>201</v>
@@ -2304,21 +2560,23 @@
       <c r="I41" s="4">
         <v>29.336437719999999</v>
       </c>
-      <c r="J41" s="4"/>
+      <c r="J41" s="4">
+        <v>833</v>
+      </c>
       <c r="K41" s="4">
-        <v>0</v>
+        <v>32.324408230000003</v>
       </c>
       <c r="L41" s="4">
-        <v>756</v>
+        <v>77</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P41" s="4" t="e">
         <v>#VALUE!</v>
@@ -2338,7 +2596,7 @@
         <v>2514</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F42" s="4">
         <v>246</v>
@@ -2388,7 +2646,7 @@
         <v>1616</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F43" s="4">
         <v>142</v>
@@ -2438,7 +2696,7 @@
         <v>2699</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F44" s="4">
         <v>281</v>
@@ -2488,7 +2746,7 @@
         <v>1911</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F45" s="4">
         <v>195</v>
@@ -2538,7 +2796,7 @@
         <v>2647</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F46" s="4">
         <v>300</v>
@@ -2562,13 +2820,13 @@
         <v>1894</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P46" s="4" t="e">
         <v>#VALUE!</v>
@@ -2588,7 +2846,7 @@
         <v>1796</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F47" s="4">
         <v>260</v>
@@ -2638,7 +2896,7 @@
         <v>2482</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F48" s="4">
         <v>269</v>
@@ -2688,7 +2946,7 @@
         <v>2622</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F49" s="4">
         <v>331</v>
@@ -2738,7 +2996,7 @@
         <v>2373</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F50" s="4">
         <v>363</v>
@@ -2762,13 +3020,13 @@
         <v>446</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P50" s="4" t="e">
         <v>#VALUE!</v>
@@ -2788,7 +3046,7 @@
         <v>2123</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F51" s="4">
         <v>196</v>
@@ -2838,7 +3096,7 @@
         <v>1718</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F52" s="4">
         <v>154</v>
@@ -2888,7 +3146,7 @@
         <v>1198</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F53" s="4">
         <v>129</v>
@@ -2915,10 +3173,10 @@
         <v>163</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P53" s="4">
         <v>-34</v>
@@ -2938,7 +3196,7 @@
         <v>1558</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F54" s="4">
         <v>163</v>
@@ -2962,13 +3220,13 @@
         <v>0</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P54" s="4" t="e">
         <v>#VALUE!</v>
@@ -2988,7 +3246,7 @@
         <v>2602</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F55" s="4">
         <v>304</v>
@@ -3012,13 +3270,13 @@
         <v>85</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P55" s="4" t="e">
         <v>#VALUE!</v>
@@ -3038,7 +3296,7 @@
         <v>1719</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F56" s="4">
         <v>0</v>
@@ -3062,13 +3320,13 @@
         <v>1031</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P56" s="4" t="e">
         <v>#VALUE!</v>
@@ -3088,7 +3346,7 @@
         <v>1900</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F57" s="4">
         <v>235</v>
@@ -3112,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P57" s="4" t="e">
         <v>#VALUE!</v>
@@ -3138,7 +3396,7 @@
         <v>2664</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F58" s="4">
         <v>538</v>
@@ -3162,13 +3420,13 @@
         <v>2</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P58" s="4" t="e">
         <v>#VALUE!</v>
@@ -3188,7 +3446,7 @@
         <v>1824</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F59" s="4">
         <v>283</v>
@@ -3212,13 +3470,13 @@
         <v>60</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P59" s="4" t="e">
         <v>#VALUE!</v>
@@ -3238,7 +3496,7 @@
         <v>1698</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F60" s="4">
         <v>297</v>
@@ -3262,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P60" s="4" t="e">
         <v>#VALUE!</v>
@@ -3288,7 +3546,7 @@
         <v>2432</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F61" s="4">
         <v>353</v>
@@ -3312,13 +3570,13 @@
         <v>0</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P61" s="4" t="e">
         <v>#VALUE!</v>
@@ -3338,7 +3596,7 @@
         <v>2256</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F62" s="4">
         <v>0</v>
@@ -3362,13 +3620,13 @@
         <v>1</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P62" s="4" t="e">
         <v>#VALUE!</v>
@@ -3388,7 +3646,7 @@
         <v>1755</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F63" s="4">
         <v>262</v>
@@ -3412,13 +3670,13 @@
         <v>36</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P63" s="4" t="e">
         <v>#VALUE!</v>
@@ -3438,7 +3696,7 @@
         <v>1607</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -3462,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P64" s="4" t="e">
         <v>#VALUE!</v>
@@ -3488,7 +3746,7 @@
         <v>1382</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F65" s="4">
         <v>171</v>
@@ -3512,13 +3770,13 @@
         <v>0</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P65" s="4" t="e">
         <v>#VALUE!</v>
@@ -3538,7 +3796,7 @@
         <v>2225</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F66" s="4">
         <v>309</v>
@@ -3562,13 +3820,13 @@
         <v>0</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P66" s="4" t="e">
         <v>#VALUE!</v>
@@ -3588,7 +3846,7 @@
         <v>2802</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F67" s="4">
         <v>395</v>
@@ -3612,13 +3870,13 @@
         <v>2</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P67" s="4" t="e">
         <v>#VALUE!</v>
@@ -3638,7 +3896,7 @@
         <v>2408</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F68" s="4">
         <v>458</v>
@@ -3662,13 +3920,13 @@
         <v>0</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P68" s="4" t="e">
         <v>#VALUE!</v>
@@ -3688,7 +3946,7 @@
         <v>1894</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F69" s="4">
         <v>344</v>
@@ -3712,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P69" s="4" t="e">
         <v>#VALUE!</v>
@@ -3738,7 +3996,7 @@
         <v>1821</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F70" s="4">
         <v>308</v>
@@ -3762,13 +4020,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P70" s="4" t="e">
         <v>#VALUE!</v>
@@ -3788,7 +4046,7 @@
         <v>1804</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F71" s="4">
         <v>270</v>
@@ -3812,13 +4070,13 @@
         <v>6</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P71" s="4" t="e">
         <v>#VALUE!</v>
@@ -3838,7 +4096,7 @@
         <v>2373</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F72" s="4">
         <v>344</v>
@@ -3862,13 +4120,13 @@
         <v>5</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P72" s="4" t="e">
         <v>#VALUE!</v>
@@ -3888,7 +4146,7 @@
         <v>2470</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F73" s="4">
         <v>434</v>
@@ -3912,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P73" s="4" t="e">
         <v>#VALUE!</v>
@@ -3938,7 +4196,7 @@
         <v>1741</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F74" s="4">
         <v>337</v>
@@ -3962,13 +4220,13 @@
         <v>0</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P74" s="4" t="e">
         <v>#VALUE!</v>
@@ -3988,7 +4246,7 @@
         <v>2807</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F75" s="4">
         <v>566</v>
@@ -4038,7 +4296,7 @@
         <v>1681</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F76" s="4">
         <v>321</v>
@@ -4088,7 +4346,7 @@
         <v>1525</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F77" s="4">
         <v>258</v>
@@ -4112,13 +4370,13 @@
         <v>0</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P77" s="4" t="e">
         <v>#VALUE!</v>
@@ -4138,7 +4396,7 @@
         <v>2144</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F78" s="4">
         <v>435</v>
@@ -4188,7 +4446,7 @@
         <v>2690</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F79" s="4">
         <v>618</v>
@@ -4238,7 +4496,7 @@
         <v>2445</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F80" s="4">
         <v>422</v>
@@ -4288,7 +4546,7 @@
         <v>2283</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F81" s="4">
         <v>340</v>
@@ -4312,13 +4570,13 @@
         <v>1</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P81" s="4" t="e">
         <v>#VALUE!</v>
@@ -4338,7 +4596,7 @@
         <v>2451</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F82" s="4">
         <v>352</v>
@@ -4362,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P82" s="4" t="e">
         <v>#VALUE!</v>
@@ -4388,7 +4646,7 @@
         <v>1900</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F83" s="4">
         <v>0</v>
@@ -4412,13 +4670,13 @@
         <v>1060</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P83" s="4" t="e">
         <v>#VALUE!</v>
@@ -4438,7 +4696,7 @@
         <v>1982</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F84" s="4">
         <v>318</v>
@@ -4488,7 +4746,7 @@
         <v>2346</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F85" s="4">
         <v>366</v>
@@ -4536,7 +4794,7 @@
         <v>2897</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F86" s="4">
         <v>349</v>
@@ -4586,7 +4844,7 @@
         <v>2029</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F87" s="4">
         <v>280</v>
@@ -4636,7 +4894,7 @@
         <v>1961</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F88" s="4">
         <v>267</v>
@@ -4686,7 +4944,7 @@
         <v>2071</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F89" s="4">
         <v>299</v>
@@ -4736,7 +4994,7 @@
         <v>2374</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F90" s="4">
         <v>334</v>
@@ -4786,7 +5044,7 @@
         <v>1130</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F91" s="4">
         <v>156</v>
@@ -4836,7 +5094,7 @@
         <v>2580</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F92" s="4">
         <v>304</v>
@@ -4860,13 +5118,13 @@
         <v>14</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P92" s="4" t="e">
         <v>#VALUE!</v>
@@ -4886,7 +5144,7 @@
         <v>1931</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F93" s="4">
         <v>325</v>
@@ -4936,7 +5194,7 @@
         <v>1576</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F94" s="4">
         <v>208</v>
@@ -4986,7 +5244,7 @@
         <v>2773</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F95" s="4">
         <v>363</v>
@@ -5036,7 +5294,7 @@
         <v>2290</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F96" s="4">
         <v>352</v>
@@ -5086,7 +5344,7 @@
         <v>3409</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F97" s="4">
         <v>391</v>
@@ -5110,13 +5368,13 @@
         <v>0</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P97" s="4" t="e">
         <v>#VALUE!</v>
@@ -5136,7 +5394,7 @@
         <v>2127</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F98" s="4">
         <v>0</v>
@@ -5160,13 +5418,13 @@
         <v>1331</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P98" s="4" t="e">
         <v>#VALUE!</v>
@@ -5186,7 +5444,7 @@
         <v>2875</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F99" s="4">
         <v>499</v>
@@ -5236,7 +5494,7 @@
         <v>2719</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F100" s="4">
         <v>343</v>
@@ -5286,7 +5544,7 @@
         <v>1571</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F101" s="4">
         <v>285</v>
@@ -5310,13 +5568,13 @@
         <v>26</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P101" s="4" t="e">
         <v>#VALUE!</v>
@@ -5336,7 +5594,7 @@
         <v>2868</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F102" s="4">
         <v>628</v>
@@ -5360,13 +5618,13 @@
         <v>19</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P102" s="4" t="e">
         <v>#VALUE!</v>
@@ -5386,7 +5644,7 @@
         <v>1761</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F103" s="4">
         <v>348</v>
@@ -5436,7 +5694,7 @@
         <v>2944</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F104" s="4">
         <v>596</v>
@@ -5486,7 +5744,7 @@
         <v>2207</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F105" s="4">
         <v>351</v>
@@ -5536,7 +5794,7 @@
         <v>2020</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F106" s="4">
         <v>350</v>
@@ -5586,7 +5844,7 @@
         <v>2757</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F107" s="4">
         <v>478</v>
@@ -5636,7 +5894,7 @@
         <v>2414</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F108" s="4">
         <v>622</v>
@@ -5686,7 +5944,7 @@
         <v>1331</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F109" s="4">
         <v>374</v>
@@ -5710,13 +5968,13 @@
         <v>0</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O109" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P109" s="4" t="e">
         <v>#VALUE!</v>
@@ -5736,7 +5994,7 @@
         <v>1967</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F110" s="4">
         <v>1</v>
@@ -5760,13 +6018,13 @@
         <v>2</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O110" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P110" s="4" t="e">
         <v>#VALUE!</v>
@@ -5786,7 +6044,7 @@
         <v>3376</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F111" s="4">
         <v>0</v>
@@ -5836,7 +6094,7 @@
         <v>2297</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F112" s="4">
         <v>402</v>
@@ -5851,13 +6109,13 @@
         <v>40.444057469999997</v>
       </c>
       <c r="J112" s="4">
-        <v>929</v>
+        <v>949</v>
       </c>
       <c r="K112" s="4">
-        <v>40.444057469999997</v>
+        <v>41.314758380000001</v>
       </c>
       <c r="L112" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M112" s="4">
         <v>317</v>
@@ -5886,7 +6144,7 @@
         <v>1575</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F113" s="4">
         <v>317</v>
@@ -5910,13 +6168,13 @@
         <v>13</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P113" s="4" t="e">
         <v>#VALUE!</v>
@@ -5936,7 +6194,7 @@
         <v>1832</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F114" s="4">
         <v>230</v>
@@ -5986,7 +6244,7 @@
         <v>1519</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F115" s="4">
         <v>137</v>
@@ -6010,13 +6268,13 @@
         <v>0</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P115" s="4" t="e">
         <v>#VALUE!</v>
@@ -6036,7 +6294,7 @@
         <v>2588</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F116" s="4">
         <v>361</v>
@@ -6086,13 +6344,13 @@
         <v>2138</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F117" s="4">
         <v>319</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H117" s="4">
         <v>477</v>
@@ -6136,7 +6394,7 @@
         <v>1772</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F118" s="4">
         <v>350</v>
@@ -6160,13 +6418,13 @@
         <v>0</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N118" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O118" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P118" s="4" t="e">
         <v>#VALUE!</v>
@@ -6186,7 +6444,7 @@
         <v>2744</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F119" s="4">
         <v>363</v>
@@ -6236,7 +6494,7 @@
         <v>2159</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F120" s="4">
         <v>434</v>
@@ -6286,7 +6544,7 @@
         <v>1987</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F121" s="4">
         <v>407</v>
@@ -6310,13 +6568,13 @@
         <v>0</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N121" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O121" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P121" s="4" t="e">
         <v>#VALUE!</v>
@@ -6336,7 +6594,7 @@
         <v>1917</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F122" s="4">
         <v>336</v>
@@ -6386,7 +6644,7 @@
         <v>2468</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F123" s="4">
         <v>379</v>
@@ -6410,13 +6668,13 @@
         <v>72</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P123" s="4" t="e">
         <v>#VALUE!</v>
@@ -6436,7 +6694,7 @@
         <v>1800</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F124" s="4">
         <v>351</v>
@@ -6486,7 +6744,7 @@
         <v>1754</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F125" s="4">
         <v>0</v>
@@ -6536,7 +6794,7 @@
         <v>2533</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F126" s="4">
         <v>507</v>
@@ -6586,7 +6844,7 @@
         <v>1469</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F127" s="4">
         <v>322</v>
@@ -6636,7 +6894,7 @@
         <v>2838</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F128" s="4">
         <v>468</v>
@@ -6686,7 +6944,7 @@
         <v>1525</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F129" s="4">
         <v>198</v>
@@ -6736,7 +6994,7 @@
         <v>2681</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F130" s="4">
         <v>273</v>
@@ -6786,7 +7044,7 @@
         <v>2399</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F131" s="4">
         <v>432</v>
@@ -6836,7 +7094,7 @@
         <v>2954</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F132" s="4">
         <v>0</v>
@@ -6860,13 +7118,13 @@
         <v>2154</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N132" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O132" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P132" s="4" t="e">
         <v>#VALUE!</v>
@@ -6886,7 +7144,7 @@
         <v>1839</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F133" s="4">
         <v>430</v>
@@ -6936,7 +7194,7 @@
         <v>1689</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F134" s="4">
         <v>355</v>
@@ -6986,7 +7244,7 @@
         <v>3225</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F135" s="4">
         <v>606</v>
@@ -7036,7 +7294,7 @@
         <v>2528</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F136" s="4">
         <v>477</v>
@@ -7086,7 +7344,7 @@
         <v>2658</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F137" s="4">
         <v>405</v>
@@ -7136,7 +7394,7 @@
         <v>2326</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F138" s="4">
         <v>356</v>
@@ -7186,7 +7444,7 @@
         <v>2068</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F139" s="4">
         <v>373</v>
@@ -7236,7 +7494,7 @@
         <v>2866</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F140" s="4">
         <v>399</v>
@@ -7286,7 +7544,7 @@
         <v>1572</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F141" s="4">
         <v>112</v>
@@ -7336,7 +7594,7 @@
         <v>3043</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F142" s="4">
         <v>0</v>
@@ -7386,7 +7644,7 @@
         <v>2247</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F143" s="4">
         <v>0</v>
@@ -7436,7 +7694,7 @@
         <v>2509</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F144" s="4">
         <v>339</v>
@@ -7460,13 +7718,13 @@
         <v>69</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N144" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O144" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P144" s="4" t="e">
         <v>#VALUE!</v>
@@ -7486,7 +7744,7 @@
         <v>2235</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F145" s="4">
         <v>334</v>
@@ -7510,13 +7768,13 @@
         <v>4</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N145" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O145" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P145" s="4" t="e">
         <v>#VALUE!</v>
@@ -7536,7 +7794,7 @@
         <v>2936</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F146" s="4">
         <v>560</v>
@@ -7586,7 +7844,7 @@
         <v>3786</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F147" s="4">
         <v>692</v>
@@ -7636,7 +7894,7 @@
         <v>3311</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F148" s="4">
         <v>698</v>
@@ -7686,7 +7944,7 @@
         <v>1886</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F149" s="4">
         <v>355</v>
@@ -7736,7 +7994,7 @@
         <v>2616</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F150" s="4">
         <v>522</v>
@@ -7786,7 +8044,7 @@
         <v>1786</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F151" s="4">
         <v>366</v>
@@ -7836,7 +8094,7 @@
         <v>2292</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F152" s="4">
         <v>331</v>
@@ -7886,7 +8144,7 @@
         <v>3387</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F153" s="4">
         <v>513</v>
@@ -7936,7 +8194,7 @@
         <v>1187</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F154" s="4">
         <v>227</v>
@@ -7986,7 +8244,7 @@
         <v>1818</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F155" s="4">
         <v>421</v>
@@ -8036,7 +8294,7 @@
         <v>2200</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F156" s="4">
         <v>386</v>
@@ -8086,7 +8344,7 @@
         <v>1927</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F157" s="4">
         <v>306</v>
@@ -8136,7 +8394,7 @@
         <v>3583</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F158" s="4">
         <v>630</v>
@@ -8186,7 +8444,7 @@
         <v>2156</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F159" s="4">
         <v>238</v>
@@ -8236,7 +8494,7 @@
         <v>2146</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F160" s="4">
         <v>454</v>
@@ -8286,7 +8544,7 @@
         <v>2583</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F161" s="4">
         <v>430</v>
@@ -8336,7 +8594,7 @@
         <v>2449</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F162" s="4">
         <v>431</v>
@@ -8386,7 +8644,7 @@
         <v>2319</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F163" s="4">
         <v>113</v>
@@ -8436,7 +8694,7 @@
         <v>2158</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F164" s="4">
         <v>304</v>
@@ -8485,17 +8743,15 @@
       <c r="D165" s="5">
         <v>1618</v>
       </c>
-      <c r="E165" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="E165" s="4"/>
       <c r="F165" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I165" s="4" t="e">
         <v>#VALUE!</v>
@@ -8536,7 +8792,7 @@
         <v>1787</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F166" s="4">
         <v>271</v>
@@ -8576,13 +8832,17 @@
       <c r="A167" s="4">
         <v>166</v>
       </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
+      <c r="B167" s="5">
+        <v>69</v>
+      </c>
+      <c r="C167" s="5">
+        <v>96</v>
+      </c>
       <c r="D167" s="5">
         <v>1813</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F167" s="4">
         <v>241</v>
@@ -8596,14 +8856,14 @@
       <c r="I167" s="4">
         <v>23.386651959999998</v>
       </c>
-      <c r="J167" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K167" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L167" s="4" t="e">
-        <v>#VALUE!</v>
+      <c r="J167" s="4">
+        <v>424</v>
+      </c>
+      <c r="K167" s="4">
+        <v>23.386651959999998</v>
+      </c>
+      <c r="L167" s="4">
+        <v>0</v>
       </c>
       <c r="M167" s="4">
         <v>241</v>
@@ -8622,13 +8882,17 @@
       <c r="A168" s="4">
         <v>167</v>
       </c>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
+      <c r="B168" s="5">
+        <v>70</v>
+      </c>
+      <c r="C168" s="5">
+        <v>96</v>
+      </c>
       <c r="D168" s="5">
         <v>1962</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F168" s="4">
         <v>195</v>
@@ -8642,14 +8906,14 @@
       <c r="I168" s="4">
         <v>24.159021410000001</v>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K168" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L168" s="4" t="e">
-        <v>#VALUE!</v>
+      <c r="J168" s="4">
+        <v>466</v>
+      </c>
+      <c r="K168" s="4">
+        <v>23.751274209999998</v>
+      </c>
+      <c r="L168" s="4">
+        <v>8</v>
       </c>
       <c r="M168" s="4">
         <v>195</v>
@@ -8668,13 +8932,17 @@
       <c r="A169" s="4">
         <v>168</v>
       </c>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
+      <c r="B169" s="5">
+        <v>71</v>
+      </c>
+      <c r="C169" s="5">
+        <v>96</v>
+      </c>
       <c r="D169" s="5">
         <v>2403</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F169" s="4">
         <v>236</v>
@@ -8688,14 +8956,14 @@
       <c r="I169" s="4">
         <v>21.431543900000001</v>
       </c>
-      <c r="J169" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K169" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L169" s="4" t="e">
-        <v>#VALUE!</v>
+      <c r="J169" s="4">
+        <v>515</v>
+      </c>
+      <c r="K169" s="4">
+        <v>21.431543900000001</v>
+      </c>
+      <c r="L169" s="4">
+        <v>0</v>
       </c>
       <c r="M169" s="4">
         <v>236</v>
@@ -8714,13 +8982,17 @@
       <c r="A170" s="4">
         <v>169</v>
       </c>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+      <c r="B170" s="5">
+        <v>72</v>
+      </c>
+      <c r="C170" s="5">
+        <v>96</v>
+      </c>
       <c r="D170" s="5">
         <v>2498</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F170" s="4">
         <v>624</v>
@@ -8734,14 +9006,14 @@
       <c r="I170" s="4">
         <v>45.716573259999997</v>
       </c>
-      <c r="J170" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K170" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L170" s="4" t="e">
-        <v>#VALUE!</v>
+      <c r="J170" s="4">
+        <v>1142</v>
+      </c>
+      <c r="K170" s="4">
+        <v>45.716573259999997</v>
+      </c>
+      <c r="L170" s="4">
+        <v>0</v>
       </c>
       <c r="M170" s="4">
         <v>624</v>
@@ -8760,13 +9032,17 @@
       <c r="A171" s="4">
         <v>170</v>
       </c>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
+      <c r="B171" s="5">
+        <v>73</v>
+      </c>
+      <c r="C171" s="5">
+        <v>96</v>
+      </c>
       <c r="D171" s="5">
         <v>2688</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F171" s="4">
         <v>248</v>
@@ -8780,14 +9056,14 @@
       <c r="I171" s="4">
         <v>27.120535709999999</v>
       </c>
-      <c r="J171" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K171" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L171" s="4" t="e">
-        <v>#VALUE!</v>
+      <c r="J171" s="4">
+        <v>731</v>
+      </c>
+      <c r="K171" s="4">
+        <v>27.19494048</v>
+      </c>
+      <c r="L171" s="4">
+        <v>2</v>
       </c>
       <c r="M171" s="4">
         <v>248</v>
@@ -8806,13 +9082,17 @@
       <c r="A172" s="4">
         <v>171</v>
       </c>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
+      <c r="B172" s="5">
+        <v>74</v>
+      </c>
+      <c r="C172" s="5">
+        <v>96</v>
+      </c>
       <c r="D172" s="5">
         <v>1504</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F172" s="4">
         <v>300</v>
@@ -8826,14 +9106,14 @@
       <c r="I172" s="4">
         <v>55.18617021</v>
       </c>
-      <c r="J172" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K172" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L172" s="4" t="e">
-        <v>#VALUE!</v>
+      <c r="J172" s="4">
+        <v>830</v>
+      </c>
+      <c r="K172" s="4">
+        <v>55.18617021</v>
+      </c>
+      <c r="L172" s="4">
+        <v>0</v>
       </c>
       <c r="M172" s="4">
         <v>300</v>
@@ -8852,13 +9132,17 @@
       <c r="A173" s="4">
         <v>172</v>
       </c>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
+      <c r="B173" s="5">
+        <v>75</v>
+      </c>
+      <c r="C173" s="5">
+        <v>96</v>
+      </c>
       <c r="D173" s="5">
         <v>2436</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F173" s="4">
         <v>163</v>
@@ -8872,14 +9156,14 @@
       <c r="I173" s="4">
         <v>30.459770110000001</v>
       </c>
-      <c r="J173" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K173" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L173" s="4" t="e">
-        <v>#VALUE!</v>
+      <c r="J173" s="4">
+        <v>749</v>
+      </c>
+      <c r="K173" s="4">
+        <v>30.747126439999999</v>
+      </c>
+      <c r="L173" s="4">
+        <v>7</v>
       </c>
       <c r="M173" s="4">
         <v>163</v>
@@ -8898,13 +9182,17 @@
       <c r="A174" s="4">
         <v>173</v>
       </c>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
+      <c r="B174" s="5">
+        <v>76</v>
+      </c>
+      <c r="C174" s="5">
+        <v>96</v>
+      </c>
       <c r="D174" s="5">
         <v>1926</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F174" s="4">
         <v>175</v>
@@ -8918,14 +9206,14 @@
       <c r="I174" s="4">
         <v>29.8026999</v>
       </c>
-      <c r="J174" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K174" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L174" s="4" t="e">
-        <v>#VALUE!</v>
+      <c r="J174" s="4">
+        <v>571</v>
+      </c>
+      <c r="K174" s="4">
+        <v>29.646936660000001</v>
+      </c>
+      <c r="L174" s="4">
+        <v>3</v>
       </c>
       <c r="M174" s="4">
         <v>175</v>
@@ -8954,7 +9242,7 @@
         <v>1878</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F175" s="4">
         <v>92</v>
@@ -9004,7 +9292,7 @@
         <v>1467</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F176" s="4">
         <v>96</v>
@@ -9054,7 +9342,7 @@
         <v>1572</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F177" s="4">
         <v>169</v>
@@ -9104,7 +9392,7 @@
         <v>1527</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F178" s="4">
         <v>175</v>
@@ -9154,7 +9442,7 @@
         <v>2326</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F179" s="4">
         <v>335</v>
@@ -9204,7 +9492,7 @@
         <v>1648</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F180" s="4">
         <v>254</v>
@@ -9228,13 +9516,13 @@
         <v>0</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N180" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O180" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P180" s="4" t="e">
         <v>#VALUE!</v>
@@ -9254,7 +9542,7 @@
         <v>3033</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F181" s="4">
         <v>445</v>
@@ -9304,7 +9592,7 @@
         <v>1901</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F182" s="4">
         <v>280</v>
@@ -9354,7 +9642,7 @@
         <v>2221</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F183" s="4">
         <v>348</v>
@@ -9404,7 +9692,7 @@
         <v>2508</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F184" s="4">
         <v>220</v>
@@ -9454,7 +9742,7 @@
         <v>1603</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F185" s="4">
         <v>261</v>
@@ -9504,7 +9792,7 @@
         <v>2728</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F186" s="4">
         <v>398</v>
@@ -9554,7 +9842,7 @@
         <v>1575</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F187" s="4">
         <v>203</v>
@@ -9604,7 +9892,7 @@
         <v>1885</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F188" s="4">
         <v>318</v>
@@ -9654,7 +9942,7 @@
         <v>2071</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F189" s="4">
         <v>368</v>
@@ -9704,7 +9992,7 @@
         <v>2193</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F190" s="4">
         <v>311</v>
@@ -9754,7 +10042,7 @@
         <v>2081</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F191" s="4">
         <v>0</v>
@@ -9804,7 +10092,7 @@
         <v>1676</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F192" s="4">
         <v>180</v>
@@ -9854,7 +10142,7 @@
         <v>2118</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F193" s="4">
         <v>294</v>
@@ -9904,7 +10192,7 @@
         <v>2275</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F194" s="4">
         <v>326</v>
@@ -9954,7 +10242,7 @@
         <v>1600</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F195" s="4">
         <v>280</v>
@@ -10004,7 +10292,7 @@
         <v>2964</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F196" s="4">
         <v>427</v>
@@ -10054,7 +10342,7 @@
         <v>1743</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F197" s="4">
         <v>0</v>
@@ -10104,7 +10392,7 @@
         <v>2213</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F198" s="4">
         <v>181</v>
@@ -10154,7 +10442,7 @@
         <v>2248</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F199" s="4">
         <v>0</v>
@@ -10204,7 +10492,7 @@
         <v>1943</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F200" s="4">
         <v>131</v>
@@ -10254,7 +10542,7 @@
         <v>708</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F201" s="4">
         <v>248</v>
@@ -10303,17 +10591,15 @@
       <c r="D202" s="5">
         <v>1923</v>
       </c>
-      <c r="E202" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="E202" s="4"/>
       <c r="F202" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I202" s="4" t="e">
         <v>#VALUE!</v>
@@ -10354,7 +10640,7 @@
         <v>1144</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F203" s="4">
         <v>104</v>
@@ -10404,7 +10690,7 @@
         <v>1974</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F204" s="4">
         <v>161</v>
@@ -10454,7 +10740,7 @@
         <v>3293</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F205" s="4">
         <v>263</v>
@@ -10504,7 +10790,7 @@
         <v>2429</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F206" s="4">
         <v>0</v>
@@ -10554,7 +10840,7 @@
         <v>2507</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F207" s="4">
         <v>0</v>
@@ -10604,7 +10890,7 @@
         <v>3235</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F208" s="4">
         <v>0</v>
@@ -10654,7 +10940,7 @@
         <v>1612</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F209" s="4">
         <v>205</v>
@@ -10704,7 +10990,7 @@
         <v>2521</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F210" s="4">
         <v>293</v>
@@ -10754,7 +11040,7 @@
         <v>1587</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F211" s="4">
         <v>159</v>
@@ -10804,7 +11090,7 @@
         <v>3070</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F212" s="4">
         <v>0</v>
@@ -10854,7 +11140,7 @@
         <v>2533</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F213" s="4">
         <v>266</v>
@@ -10878,13 +11164,13 @@
         <v>0</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N213" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O213" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P213" s="4" t="e">
         <v>#VALUE!</v>
@@ -10904,7 +11190,7 @@
         <v>1712</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F214" s="4">
         <v>0</v>
@@ -10954,7 +11240,7 @@
         <v>1396</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F215" s="4">
         <v>113</v>
@@ -11004,7 +11290,7 @@
         <v>2154</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F216" s="4">
         <v>0</v>
@@ -11054,7 +11340,7 @@
         <v>1700</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F217" s="4">
         <v>0</v>
@@ -11078,13 +11364,13 @@
         <v>668</v>
       </c>
       <c r="M217" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N217" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O217" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P217" s="4" t="e">
         <v>#VALUE!</v>
@@ -11104,7 +11390,7 @@
         <v>3189</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F218" s="4">
         <v>499</v>
@@ -11154,7 +11440,7 @@
         <v>2993</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F219" s="4">
         <v>183</v>
@@ -11204,7 +11490,7 @@
         <v>1411</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F220" s="4">
         <v>81</v>
@@ -11254,7 +11540,7 @@
         <v>2372</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F221" s="4">
         <v>18</v>
@@ -11304,7 +11590,7 @@
         <v>3108</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F222" s="4">
         <v>442</v>
@@ -11354,7 +11640,7 @@
         <v>3118</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F223" s="4">
         <v>15</v>
@@ -11404,7 +11690,7 @@
         <v>1929</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F224" s="4">
         <v>250</v>
@@ -11454,7 +11740,7 @@
         <v>3051</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F225" s="4">
         <v>0</v>
@@ -11504,7 +11790,7 @@
         <v>1929</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F226" s="4">
         <v>321</v>
@@ -11554,7 +11840,7 @@
         <v>2219</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F227" s="4">
         <v>203</v>
@@ -11604,7 +11890,7 @@
         <v>2074</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F228" s="4">
         <v>178</v>
@@ -11654,7 +11940,7 @@
         <v>1298</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F229" s="4">
         <v>132</v>
@@ -11704,7 +11990,7 @@
         <v>2861</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F230" s="4">
         <v>309</v>
@@ -11754,7 +12040,7 @@
         <v>2267</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F231" s="4">
         <v>169</v>
@@ -11804,7 +12090,7 @@
         <v>1875</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F232" s="4">
         <v>0</v>
@@ -11828,10 +12114,10 @@
         <v>418</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N232" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O232" s="4">
         <v>635</v>
@@ -11854,7 +12140,7 @@
         <v>1787</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F233" s="4">
         <v>0</v>
@@ -11904,7 +12190,7 @@
         <v>1832</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F234" s="4">
         <v>114</v>
@@ -11953,17 +12239,15 @@
       <c r="D235" s="5">
         <v>1435</v>
       </c>
-      <c r="E235" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="E235" s="4"/>
       <c r="F235" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I235" s="4" t="e">
         <v>#VALUE!</v>
@@ -12004,7 +12288,7 @@
         <v>2915</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F236" s="4">
         <v>226</v>
@@ -12054,7 +12338,7 @@
         <v>2254</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F237" s="4">
         <v>69</v>
@@ -12104,7 +12388,7 @@
         <v>2779</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F238" s="4">
         <v>430</v>
@@ -12154,7 +12438,7 @@
         <v>2184</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F239" s="4">
         <v>290</v>
@@ -12204,7 +12488,7 @@
         <v>1789</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F240" s="4">
         <v>164</v>
@@ -12254,7 +12538,7 @@
         <v>2155</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F241" s="4">
         <v>175</v>
@@ -12304,7 +12588,7 @@
         <v>2215</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F242" s="4">
         <v>110</v>
@@ -12354,7 +12638,7 @@
         <v>2613</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F243" s="4">
         <v>107</v>
@@ -12404,7 +12688,7 @@
         <v>2030</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F244" s="4">
         <v>114</v>
@@ -12454,7 +12738,7 @@
         <v>2915</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F245" s="4">
         <v>122</v>
@@ -12504,7 +12788,7 @@
         <v>2167</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F246" s="4">
         <v>91</v>
@@ -12554,7 +12838,7 @@
         <v>2289</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F247" s="4">
         <v>74</v>
@@ -12604,7 +12888,7 @@
         <v>2234</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F248" s="4">
         <v>75</v>
@@ -12654,7 +12938,7 @@
         <v>1188</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F249" s="4">
         <v>47</v>
@@ -12704,7 +12988,7 @@
         <v>2207</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F250" s="4">
         <v>243</v>
@@ -12754,7 +13038,7 @@
         <v>2530</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F251" s="4">
         <v>277</v>
@@ -12804,7 +13088,7 @@
         <v>2070</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F252" s="4">
         <v>180</v>
@@ -12828,13 +13112,13 @@
         <v>11</v>
       </c>
       <c r="M252" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N252" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O252" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P252" s="4" t="e">
         <v>#VALUE!</v>
@@ -12854,7 +13138,7 @@
         <v>2840</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F253" s="4">
         <v>202</v>
@@ -12904,7 +13188,7 @@
         <v>1933</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F254" s="4">
         <v>155</v>
@@ -12954,7 +13238,7 @@
         <v>2236</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F255" s="4">
         <v>236</v>
@@ -13004,7 +13288,7 @@
         <v>2108</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F256" s="4">
         <v>102</v>
@@ -13054,7 +13338,7 @@
         <v>2723</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F257" s="4">
         <v>160</v>
@@ -13104,7 +13388,7 @@
         <v>2213</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F258" s="4">
         <v>195</v>
@@ -13154,7 +13438,7 @@
         <v>1888</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F259" s="4">
         <v>93</v>
@@ -13204,7 +13488,7 @@
         <v>2438</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F260" s="4">
         <v>230</v>
@@ -13254,7 +13538,7 @@
         <v>1980</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F261" s="4">
         <v>119</v>
@@ -13304,7 +13588,7 @@
         <v>2214</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F262" s="4">
         <v>190</v>
@@ -13354,7 +13638,7 @@
         <v>1527</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F263" s="4">
         <v>136</v>
@@ -13404,7 +13688,7 @@
         <v>1949</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F264" s="4">
         <v>154</v>
@@ -13454,7 +13738,7 @@
         <v>2095</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F265" s="4">
         <v>148</v>
@@ -13504,7 +13788,7 @@
         <v>2420</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F266" s="4">
         <v>151</v>
@@ -13554,7 +13838,7 @@
         <v>3261</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F267" s="4">
         <v>330</v>
@@ -13604,7 +13888,7 @@
         <v>1088</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F268" s="4">
         <v>205</v>
@@ -13654,7 +13938,7 @@
         <v>1471</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F269" s="4">
         <v>113</v>
@@ -13704,7 +13988,7 @@
         <v>2601</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F270" s="4">
         <v>215</v>
@@ -13754,7 +14038,7 @@
         <v>1430</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F271" s="4">
         <v>99</v>
